--- a/summer_2025/cds130/summera/summer_cds130_a03/wa13_5/wa13_5_cds130_a03.xlsx
+++ b/summer_2025/cds130/summera/summer_cds130_a03/wa13_5/wa13_5_cds130_a03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Desktop/summer_cds130_a03/wa13_5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B2157A-4C0F-8143-942A-52C5DE3EED83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532218C0-8D70-7240-B5EA-858A3A6D6ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42180" yWindow="9040" windowWidth="27240" windowHeight="16440" xr2:uid="{E59BFD7E-4255-8B47-AF36-A20D8C9F531A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26580" xr2:uid="{E59BFD7E-4255-8B47-AF36-A20D8C9F531A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A4" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -467,22 +467,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
       <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
         <v>4</v>
       </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
       <c r="F2">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -527,22 +527,22 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
